--- a/src/Data/Scalability/CluStream/Clustream-MicroCluster-KDD98-Throughput-xClusterSize.xlsx
+++ b/src/Data/Scalability/CluStream/Clustream-MicroCluster-KDD98-Throughput-xClusterSize.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0519MicroClusters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/Scalability/CluStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,22 +552,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>4368.0540149999997</v>
+        <v>4.3680540149999993</v>
       </c>
       <c r="C2" s="1">
-        <v>8136.9243669999996</v>
+        <v>8.1369243669999989</v>
       </c>
       <c r="D2" s="1">
-        <v>14847.83152</v>
+        <v>14.84783152</v>
       </c>
       <c r="E2" s="1">
-        <v>26673.65033</v>
+        <v>26.673650330000001</v>
       </c>
       <c r="F2" s="1">
-        <v>40895.660179999999</v>
+        <v>40.89566018</v>
       </c>
       <c r="G2" s="1">
-        <v>48094.043080000003</v>
+        <v>48.094043080000006</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -575,22 +575,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>3517.8845379999998</v>
+        <v>3.5178845379999997</v>
       </c>
       <c r="C3" s="1">
-        <v>6669.5220010000003</v>
+        <v>6.6695220010000007</v>
       </c>
       <c r="D3" s="1">
-        <v>12735.207689999999</v>
+        <v>12.735207689999999</v>
       </c>
       <c r="E3" s="1">
-        <v>23196.054550000001</v>
+        <v>23.196054549999999</v>
       </c>
       <c r="F3" s="1">
-        <v>36844.791279999998</v>
+        <v>36.844791279999995</v>
       </c>
       <c r="G3" s="1">
-        <v>46481.566899999998</v>
+        <v>46.481566899999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,22 +598,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>3018.7886189999999</v>
+        <v>3.018788619</v>
       </c>
       <c r="C4" s="1">
-        <v>5728.6454199999998</v>
+        <v>5.7286454199999994</v>
       </c>
       <c r="D4" s="1">
-        <v>10890.130020000001</v>
+        <v>10.890130020000001</v>
       </c>
       <c r="E4" s="1">
-        <v>20574.95535</v>
+        <v>20.57495535</v>
       </c>
       <c r="F4" s="1">
-        <v>30373.753546248699</v>
+        <v>30.3737535462487</v>
       </c>
       <c r="G4" s="1">
-        <v>40110.365010000001</v>
+        <v>40.110365010000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -621,22 +621,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>2498.587039</v>
+        <v>2.4985870389999998</v>
       </c>
       <c r="C5" s="1">
-        <v>4971.6586530000004</v>
+        <v>4.9716586530000004</v>
       </c>
       <c r="D5" s="1">
-        <v>9410.8588099999997</v>
+        <v>9.4108588100000006</v>
       </c>
       <c r="E5" s="1">
-        <v>14096.87846</v>
+        <v>14.096878459999999</v>
       </c>
       <c r="F5" s="1">
-        <v>24477.873553169899</v>
+        <v>24.4778735531699</v>
       </c>
       <c r="G5" s="1">
-        <v>33539.271468442603</v>
+        <v>33.5392714684426</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -644,22 +644,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>2304.1981460000002</v>
+        <v>2.3041981460000001</v>
       </c>
       <c r="C6" s="1">
-        <v>4472.9249099999997</v>
+        <v>4.4729249099999997</v>
       </c>
       <c r="D6" s="1">
-        <v>8514.0148819999995</v>
+        <v>8.5140148819999997</v>
       </c>
       <c r="E6" s="1">
-        <v>12413.46162</v>
+        <v>12.41346162</v>
       </c>
       <c r="F6" s="1">
-        <v>21331.428400000001</v>
+        <v>21.3314284</v>
       </c>
       <c r="G6" s="1">
-        <v>29585.540468250201</v>
+        <v>29.585540468250201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -667,22 +667,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>1930.053005</v>
+        <v>1.930053005</v>
       </c>
       <c r="C7" s="1">
-        <v>3981.4481839999999</v>
+        <v>3.981448184</v>
       </c>
       <c r="D7" s="1">
-        <v>7639.1553599999997</v>
+        <v>7.6391553600000002</v>
       </c>
       <c r="E7" s="1">
-        <v>10421.524359999999</v>
+        <v>10.421524359999999</v>
       </c>
       <c r="F7" s="1">
-        <v>19046.62617</v>
+        <v>19.04662617</v>
       </c>
       <c r="G7" s="1">
-        <v>26435.5785935493</v>
+        <v>26.435578593549302</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
